--- a/2018/com-mcas-points-20180715.xlsx
+++ b/2018/com-mcas-points-20180715.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrye/personal/autox/results/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{3B4C8893-BB75-7446-9584-540927B15562}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58101CC9-81CD-AC42-8BC7-EB1DB03ED3F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="19900" windowHeight="16640"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="19900" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>ALEX SIMPSON</t>
   </si>
   <si>
-    <t>MARK GRUETZMANN</t>
-  </si>
-  <si>
     <t>64 FORD GLALAXIE</t>
   </si>
   <si>
@@ -490,12 +487,15 @@
   </si>
   <si>
     <t>final_time</t>
+  </si>
+  <si>
+    <t>MARK GRUETZMAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -530,6 +530,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -635,15 +636,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 5 2" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 6 2" xfId="8"/>
-    <cellStyle name="Normal 7" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 7" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1005,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1035,10 +1036,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -1048,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>6</v>
@@ -1057,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1538,14 +1539,14 @@
         <v>460</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="11">
         <v>64.358000000000004</v>
@@ -1565,14 +1566,14 @@
         <v>619</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="11">
         <v>65.474000000000004</v>
@@ -1590,14 +1591,14 @@
         <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="11">
         <v>65.587999999999994</v>
@@ -1615,14 +1616,14 @@
         <v>691</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="11">
         <v>83.248000000000005</v>
@@ -1659,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="11">
         <v>64.224000000000004</v>
@@ -1688,11 +1689,11 @@
         <v>27</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="11">
         <v>68.578000000000003</v>
@@ -1713,11 +1714,11 @@
         <v>27</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="11">
         <v>70.424000000000007</v>
@@ -1756,11 +1757,11 @@
         <v>23</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H36" s="11">
         <v>65.281999999999996</v>
@@ -1798,11 +1799,11 @@
         <v>14</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H39" s="11">
         <v>64.741</v>
@@ -1826,14 +1827,14 @@
         <v>118</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="11">
         <v>66.233999999999995</v>
@@ -1861,11 +1862,11 @@
         <v>11</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H41" s="11">
         <v>64.713999999999999</v>
@@ -1893,11 +1894,11 @@
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="11">
         <v>68.626999999999995</v>
@@ -1925,11 +1926,11 @@
         <v>32</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="11">
         <v>68.441999999999993</v>
@@ -1957,11 +1958,11 @@
         <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" s="11">
         <v>72.188000000000002</v>
@@ -2002,14 +2003,14 @@
         <v>519</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H47" s="11">
         <v>61.988</v>
@@ -2036,11 +2037,11 @@
         <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H48" s="11">
         <v>64.572999999999993</v>
@@ -2064,14 +2065,14 @@
         <v>30</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="11">
         <v>63.021999999999998</v>
@@ -2098,11 +2099,11 @@
         <v>3</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="11">
         <v>66.891999999999996</v>
@@ -2129,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
@@ -2161,11 +2162,11 @@
         <v>21</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H52" s="11">
         <v>67.218999999999994</v>
@@ -2192,11 +2193,11 @@
         <v>28</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H53" s="11">
         <v>66.948999999999998</v>
@@ -2225,11 +2226,11 @@
         <v>20</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" s="11">
         <v>63.537999999999997</v>
@@ -2256,11 +2257,11 @@
         <v>31</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H55" s="11">
         <v>65.394000000000005</v>
@@ -2285,11 +2286,11 @@
         <v>9</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="11">
         <v>67.591999999999999</v>
@@ -2313,7 +2314,7 @@
         <v>19</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>37</v>
@@ -2337,13 +2338,13 @@
         <v>77</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H58" s="11">
         <v>65.587000000000003</v>
@@ -2364,13 +2365,13 @@
         <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" s="11">
         <v>68.864000000000004</v>
@@ -2392,13 +2393,13 @@
         <v>411</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H60" s="11">
         <v>65.418999999999997</v>
@@ -2422,7 +2423,7 @@
         <v>19</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>37</v>
@@ -2476,17 +2477,17 @@
         <v>34</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65" s="11">
         <v>61.179000000000002</v>
@@ -2511,17 +2512,17 @@
         <v>64</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H66" s="11">
         <v>61.113999999999997</v>
@@ -2546,17 +2547,17 @@
         <v>79</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H67" s="10">
         <v>58.972000000000001</v>
@@ -2581,17 +2582,17 @@
         <v>843</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H68" s="11">
         <v>62.302999999999997</v>
@@ -2614,17 +2615,17 @@
         <v>49</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" s="11">
         <v>59.247999999999998</v>
@@ -2647,17 +2648,17 @@
         <v>951</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H70" s="11">
         <v>63.966999999999999</v>
@@ -2680,17 +2681,17 @@
         <v>321</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" s="11">
         <v>63.012</v>
@@ -2713,17 +2714,17 @@
         <v>24</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H72" s="13">
         <v>61.837000000000003</v>
@@ -2746,17 +2747,17 @@
         <v>134</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="13">
         <v>67.180999999999997</v>
@@ -2779,17 +2780,17 @@
         <v>957</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H74" s="13">
         <v>73.012</v>
@@ -2840,17 +2841,17 @@
         <v>81</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H78" s="13">
         <v>63.417000000000002</v>
@@ -2874,17 +2875,17 @@
         <v>2</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H79" s="13">
         <v>64.325000000000003</v>
@@ -2909,13 +2910,13 @@
         <v>327</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="4" t="s">
@@ -2944,17 +2945,17 @@
         <v>990</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H81" s="13">
         <v>66.236000000000004</v>
@@ -3007,7 +3008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3024,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
